--- a/data/trans_media/imc_inf-Habitat-trans_media.xlsx
+++ b/data/trans_media/imc_inf-Habitat-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,43</t>
+          <t>19,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20,32</t>
+          <t>20,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,16</t>
+          <t>18,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,61</t>
+          <t>20,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,8</t>
+          <t>19,03</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,08</t>
+          <t>20,16</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,89</t>
+          <t>19,25</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>19,51</t>
+          <t>19,42</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,13</t>
+          <t>19,33</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>20,21</t>
+          <t>20,25</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>19,51</t>
+          <t>18,91</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>19,56</t>
+          <t>19,8</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,11; 21,07</t>
+          <t>18,44; 21,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,03; 21,89</t>
+          <t>18,98; 22,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,87; 19,67</t>
+          <t>16,97; 20,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,6; 21,91</t>
+          <t>18,23; 22,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,73; 19,93</t>
+          <t>17,91; 20,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,08; 25,15</t>
+          <t>17,91; 24,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,46; 24,98</t>
+          <t>17,7; 22,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,85; 21,75</t>
+          <t>17,77; 21,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,25; 20,19</t>
+          <t>18,5; 20,2</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,93; 22,02</t>
+          <t>19,01; 22,57</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,25; 21,94</t>
+          <t>17,76; 20,8</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,24; 21,17</t>
+          <t>18,37; 21,49</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,38</t>
+          <t>19,43</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,6</t>
+          <t>19,99</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,65</t>
+          <t>19,63</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,21</t>
+          <t>20,28</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,57</t>
+          <t>18,73</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,32</t>
+          <t>19,3</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,78</t>
+          <t>19,21</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,92</t>
+          <t>19,0</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>19,0</t>
+          <t>19,1</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>19,47</t>
+          <t>19,66</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>19,24</t>
+          <t>19,43</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>19,61</t>
+          <t>19,68</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,82; 19,97</t>
+          <t>18,86; 20,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,94; 20,45</t>
+          <t>19,25; 20,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,95; 20,45</t>
+          <t>18,85; 20,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,95; 23,01</t>
+          <t>18,97; 23,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,99; 19,23</t>
+          <t>18,19; 19,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,58; 20,2</t>
+          <t>18,53; 20,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,16; 19,35</t>
+          <t>18,59; 19,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,25; 19,74</t>
+          <t>18,35; 19,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,58; 19,43</t>
+          <t>18,69; 19,54</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,95; 20,04</t>
+          <t>19,1; 20,3</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,73; 19,75</t>
+          <t>18,92; 19,97</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,86; 21,15</t>
+          <t>18,9; 21,3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,71</t>
+          <t>19,75</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,0</t>
+          <t>20,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,0</t>
+          <t>19,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,32</t>
+          <t>19,48</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,96</t>
+          <t>19,14</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,85</t>
+          <t>18,9</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,35</t>
+          <t>18,37</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,59</t>
+          <t>18,67</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>19,35</t>
+          <t>19,46</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>19,44</t>
+          <t>19,51</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>18,69</t>
+          <t>18,79</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>19,0</t>
+          <t>19,12</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,26; 20,64</t>
+          <t>19,26; 20,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,35; 20,89</t>
+          <t>19,47; 21,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,5; 19,65</t>
+          <t>18,69; 19,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,84; 19,78</t>
+          <t>19,0; 20,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,59; 19,38</t>
+          <t>18,73; 19,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,35; 19,39</t>
+          <t>18,39; 19,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,93; 18,79</t>
+          <t>17,97; 18,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,11; 19,16</t>
+          <t>18,18; 19,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,99; 19,79</t>
+          <t>19,07; 19,88</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19,04; 19,94</t>
+          <t>19,13; 20,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>18,38; 19,15</t>
+          <t>18,45; 19,24</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,69; 19,4</t>
+          <t>18,78; 19,53</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,17 +1076,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,41</t>
+          <t>20,5</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,4</t>
+          <t>19,7</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,11</t>
+          <t>18,19</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -1096,17 +1096,17 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,65</t>
+          <t>19,58</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,31</t>
+          <t>19,51</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,35</t>
+          <t>18,45</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1121,12 +1121,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>19,36</t>
+          <t>19,61</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>18,22</t>
+          <t>18,31</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,49; 21,95</t>
+          <t>19,51; 21,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,66; 20,29</t>
+          <t>18,95; 20,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,55; 18,69</t>
+          <t>17,66; 18,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,53; 20,24</t>
+          <t>18,55; 20,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,98; 20,85</t>
+          <t>18,92; 20,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,64; 20,03</t>
+          <t>18,81; 20,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,83; 19,1</t>
+          <t>17,86; 19,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,28; 20,11</t>
+          <t>18,26; 20,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,43; 20,89</t>
+          <t>19,42; 20,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,88; 19,91</t>
+          <t>19,11; 20,25</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,87; 18,68</t>
+          <t>17,91; 18,75</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,62; 19,76</t>
+          <t>18,6; 19,77</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>19,36</t>
+          <t>19,56</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,56</t>
+          <t>19,91</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>19,29</t>
+          <t>19,57</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>18,43</t>
+          <t>18,51</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>18,89</t>
+          <t>18,66</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,23</t>
+          <t>19,4</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>19,13</t>
+          <t>19,33</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>18,59</t>
+          <t>18,7</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>19,12</t>
+          <t>19,11</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>19,39</t>
+          <t>19,66</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>19,21</t>
+          <t>19,45</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>18,51</t>
+          <t>18,61</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,82; 20,35</t>
+          <t>18,9; 20,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,82; 21,25</t>
+          <t>19,06; 21,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,63; 20,22</t>
+          <t>18,88; 20,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,98; 19,02</t>
+          <t>18,03; 19,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,33; 19,57</t>
+          <t>18,21; 19,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,68; 19,82</t>
+          <t>18,85; 20,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,58; 19,85</t>
+          <t>18,74; 20,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,95; 19,41</t>
+          <t>18,06; 19,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,7; 19,62</t>
+          <t>18,68; 19,64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18,94; 20,12</t>
+          <t>19,2; 20,5</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18,79; 19,77</t>
+          <t>19,01; 20,08</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,12; 19,0</t>
+          <t>18,19; 19,12</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>19,68</t>
+          <t>19,78</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>19,69</t>
+          <t>19,94</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>18,96</t>
+          <t>19,11</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,23</t>
+          <t>19,33</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>19,0</t>
+          <t>19,01</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>19,18</t>
+          <t>19,29</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>18,73</t>
+          <t>18,82</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>18,76</t>
+          <t>18,83</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>19,35</t>
+          <t>19,41</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>19,44</t>
+          <t>19,62</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>18,85</t>
+          <t>18,97</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>19,01</t>
+          <t>19,09</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,37; 20,09</t>
+          <t>19,44; 20,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,33; 20,23</t>
+          <t>19,56; 20,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,64; 19,3</t>
+          <t>18,79; 19,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,89; 19,71</t>
+          <t>18,95; 19,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18,72; 19,33</t>
+          <t>18,74; 19,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,9; 19,51</t>
+          <t>18,98; 19,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,46; 19,06</t>
+          <t>18,53; 19,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>18,42; 19,16</t>
+          <t>18,52; 19,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,12; 19,61</t>
+          <t>19,18; 19,67</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,17; 19,73</t>
+          <t>19,36; 19,96</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,62; 19,08</t>
+          <t>18,74; 19,22</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>18,79; 19,31</t>
+          <t>18,83; 19,41</t>
         </is>
       </c>
     </row>
